--- a/biology/Zoologie/Euselasia_euryone/Euselasia_euryone.xlsx
+++ b/biology/Zoologie/Euselasia_euryone/Euselasia_euryone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia euryone est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Euselasia.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euselasia euryone a été décrit par  William Chapman Hewitson en 1856 sous le nom de Eurygona euryone[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia euryone a été décrit par  William Chapman Hewitson en 1856 sous le nom de Eurygona euryone
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia euryone est un papillon de couleur ocre rayé de grenat (un rouge presque noir) avec une fine bordure rouge et une ligne submarginale de chevrons noirs aux antérieures, une ligne submarginale de gros ocelles noirs aux postérieures.
 </t>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,12 +617,49 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Euselasia euryone est présent en Guyane, Guyana, au Surinam, en Équateur, au Brésil, au Pérou et en Bolivie[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia euryone est présent en Guyane, Guyana, au Surinam, en Équateur, au Brésil, au Pérou et en Bolivie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euselasia_euryone</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_euryone</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
         </is>
       </c>
     </row>
